--- a/biology/Botanique/Astéridées/Astéridées.xlsx
+++ b/biology/Botanique/Astéridées/Astéridées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rid%C3%A9es</t>
+          <t>Astéridées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astéridées, Astéranées
-Les Asteranae, en français Astéranées[2], sont un super-ordre de plantes à fleurs formant le clade des Astéridées qui constituent, avec les Rosidées (super-ordre des Rosanae), l'un des deux principaux clades des Dicotylédones vraies dans la classification phylogénétique APG III (2009)[3].
-La plupart des taxons de ce clade étaient référencés dans la sous-classe des Asteridae dans la classification classique de Cronquist (1981)[4] et dans la sous-classe des Sympetalae dans la classification de Wettstein (1935)[5], avec une taxinomie interne différente.
+Les Asteranae, en français Astéranées, sont un super-ordre de plantes à fleurs formant le clade des Astéridées qui constituent, avec les Rosidées (super-ordre des Rosanae), l'un des deux principaux clades des Dicotylédones vraies dans la classification phylogénétique APG III (2009).
+La plupart des taxons de ce clade étaient référencés dans la sous-classe des Asteridae dans la classification classique de Cronquist (1981) et dans la sous-classe des Sympetalae dans la classification de Wettstein (1935), avec une taxinomie interne différente.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rid%C3%A9es</t>
+          <t>Astéridées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Asteranae est créé en 1967 par le botaniste soviéto-arménien Armen Takhtajan, publié dans son ouvrage Sistema i Filogeniia Tsvetkovykh Rastenii[6]. Il est formé à partir du nom du genre type Aster, du grec ancien : ἀστήρ / astḗr, « étoile », par analogie avec la forme des capitules, suivi de la terminaison -anae commune aux super-ordres en nomenclature botanique.
-En 1992, Thorne met à jour sa classification et accepte la terminaison -anae pour les super-ordres à la place du « traditionnel mais inapproprié » -iflorae. Il ne place alors que deux ordres dans les Asteranae : les Asterales et les Campanulales[7]. En 2007, Thorne et Reveal[8] n'y placent que les Asterales divisés en deux sous-ordres (voir infra), puis en 2009, Takhtajan publie sa seconde édition de son ouvrage Flowering Plants[9], dans lequel le super-ordre des Asteranae, classé dans la sous-classe des Asteridae, classe des Magnoliopsida (Dicotylédones), division des Magnoliophyta (plantes à fleurs), regroupe cinq ordres (voir infra).
-La même année, le clade des « asterids » est défini par la classification phylogénétique APG III (2009)[3], mais ne reçoit pas encore de nom scientifique ni de rang taxinomique. Le nom Asteranae est choisi pour ce clade par Mark W. Chase et James L. Reveal (2009)[10] qui donnent le rang de super-ordre aux clades principaux d'Angiospermes. Les Angiospermes correspondent alors à la sous-classe des Magnoliidae, de la classe des Equisetopsida qui regroupe toutes les plantes terrestres, en cohérence avec la publication de Lewis et McCourt (2004)[11] selon laquelle, si les principaux clades d'algues vertes sont reconnus comme des classes, alors toutes les plantes terrestres devraient être incluses dans une seule classe. La classification de Chase et Reveal est suivie par Tropicos                                           (5 juillet 2022)[12] et l'INPN      (5 juillet 2022)[2], étant applicable aux mises à jour de la classification phylogénétique APG IV (2016)[13]. En 2015, Ruggiero et al.[14] publient pour le Catalogue of Life une classification de tous les ordres du vivant. Les super-ordres de Chase et Reveal[10] sont alors conservés mais les plantes à fleurs sont élevées au rang de la super-classe des Angiospermae et les plantes terrestres sont regroupées dans la super-division des Embryophyta, en cohérence avec l'attribution traditionnelle du statut de division aux principaux sous-groupes de Bryophytes, de Ptéridophytes et de plantes à graines[14]. Cette classification est suivie par l'ITIS      (5 juillet 2022)[15] et le World Register of Marine Species                               (5 juillet 2022)[16].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Asteranae est créé en 1967 par le botaniste soviéto-arménien Armen Takhtajan, publié dans son ouvrage Sistema i Filogeniia Tsvetkovykh Rastenii. Il est formé à partir du nom du genre type Aster, du grec ancien : ἀστήρ / astḗr, « étoile », par analogie avec la forme des capitules, suivi de la terminaison -anae commune aux super-ordres en nomenclature botanique.
+En 1992, Thorne met à jour sa classification et accepte la terminaison -anae pour les super-ordres à la place du « traditionnel mais inapproprié » -iflorae. Il ne place alors que deux ordres dans les Asteranae : les Asterales et les Campanulales. En 2007, Thorne et Reveal n'y placent que les Asterales divisés en deux sous-ordres (voir infra), puis en 2009, Takhtajan publie sa seconde édition de son ouvrage Flowering Plants, dans lequel le super-ordre des Asteranae, classé dans la sous-classe des Asteridae, classe des Magnoliopsida (Dicotylédones), division des Magnoliophyta (plantes à fleurs), regroupe cinq ordres (voir infra).
+La même année, le clade des « asterids » est défini par la classification phylogénétique APG III (2009), mais ne reçoit pas encore de nom scientifique ni de rang taxinomique. Le nom Asteranae est choisi pour ce clade par Mark W. Chase et James L. Reveal (2009) qui donnent le rang de super-ordre aux clades principaux d'Angiospermes. Les Angiospermes correspondent alors à la sous-classe des Magnoliidae, de la classe des Equisetopsida qui regroupe toutes les plantes terrestres, en cohérence avec la publication de Lewis et McCourt (2004) selon laquelle, si les principaux clades d'algues vertes sont reconnus comme des classes, alors toutes les plantes terrestres devraient être incluses dans une seule classe. La classification de Chase et Reveal est suivie par Tropicos                                           (5 juillet 2022) et l'INPN      (5 juillet 2022), étant applicable aux mises à jour de la classification phylogénétique APG IV (2016). En 2015, Ruggiero et al. publient pour le Catalogue of Life une classification de tous les ordres du vivant. Les super-ordres de Chase et Reveal sont alors conservés mais les plantes à fleurs sont élevées au rang de la super-classe des Angiospermae et les plantes terrestres sont regroupées dans la super-division des Embryophyta, en cohérence avec l'attribution traditionnelle du statut de division aux principaux sous-groupes de Bryophytes, de Ptéridophytes et de plantes à graines. Cette classification est suivie par l'ITIS      (5 juillet 2022) et le World Register of Marine Species                               (5 juillet 2022).
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rid%C3%A9es</t>
+          <t>Astéridées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification phylogénétique APG IV (2016)[13] (voir infra), le clade des Astéridées regroupe treize ordres et la famille des Boraginaceae est placée sans ordre. Ruggiero et al. (2015)[14] ajoutent un quatorzième ordre aux Asteranae, les Boraginales.
-Selon l'ITIS      (5 juillet 2022)[15] et le World Register of Marine Species                               (5 juillet 2022)[16], d'après Ruggiero et al. (2015)[14] (quatorze ordres) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification phylogénétique APG IV (2016) (voir infra), le clade des Astéridées regroupe treize ordres et la famille des Boraginaceae est placée sans ordre. Ruggiero et al. (2015) ajoutent un quatorzième ordre aux Asteranae, les Boraginales.
+Selon l'ITIS      (5 juillet 2022) et le World Register of Marine Species                               (5 juillet 2022), d'après Ruggiero et al. (2015) (quatorze ordres) :
 Apiales Nakai, 1930
 Aquifoliales Senft, 1856
 Asterales Link, 1829
@@ -564,7 +580,7 @@
 Lamiales Bromhead, 1838
 Paracryphiales Takht. ex Reveal, 1992
 Solanales Juss. ex Bercht. &amp; J.Presl, 1820
-Selon l'INPN      (5 juillet 2022)[2] (quinze ordres) :
+Selon l'INPN      (5 juillet 2022) (quinze ordres) :
 Apiales Nakai, 1930
 Aquifoliales Senft, 1856
 Asterales Link, 1829
@@ -580,7 +596,7 @@
 Metteniusales Takht., 1997
 Paracryphiales Takht. ex Reveal, 1992
 Solanales Juss. ex Bercht. &amp; J.Presl, 1820
-Selon Tropicos                                           (5 juillet 2022)[12] (liste brute contenant des synonymes) :
+Selon Tropicos                                           (5 juillet 2022) (liste brute contenant des synonymes) :
 Acanthales Juss. ex Bercht. &amp; J. Presl, 1820
 Actinidiales Takht. ex Reveal, 1992
 Actinidiales Takht. ex Reveal, 1993
@@ -617,7 +633,7 @@
 Solanales Juss. ex Bercht. &amp; J. Presl, 1820
 Torricelliales Takht. ex Reveal &amp; Doweld, 1999
 Vahliales Doweld, 2001
-Selon Takhtajan (2009)[9] (cinq ordres) :
+Selon Takhtajan (2009) (cinq ordres) :
 Rousseales
 Rousseaceae
 Carpodetaceae
@@ -639,7 +655,7 @@
 Menyanthaceae
 Calyceraceae
 Asteraceae
-Selon Thorne et Reveal (2007)[8] (un ordre, deux sous-ordres) :
+Selon Thorne et Reveal (2007) (un ordre, deux sous-ordres) :
 Asterales
 Campanulinae
 Pentaphragmataceae
@@ -654,7 +670,7 @@
 Goodeniaceae
 Calyceraceae
 Asteraceae
-Selon Thorne (1992)[7] (deux ordres) :
+Selon Thorne (1992) (deux ordres) :
 Asterales
 Calyceraceae
 Asteraceae
@@ -673,7 +689,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rid%C3%A9es</t>
+          <t>Astéridées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -691,9 +707,11 @@
           <t>Classification APG IV</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dans la classification phylogénétique APG IV (2016)[13], les Astéridées descendent des Superastéridées.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans la classification phylogénétique APG IV (2016), les Astéridées descendent des Superastéridées.
 Les Astéridées comprennent :
 clade des Astéridées (en anglais, « asterids »)
 ordre des Cornales
@@ -721,7 +739,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rid%C3%A9es</t>
+          <t>Astéridées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -739,9 +757,11 @@
           <t>Classification APG II</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour rappel, ci-dessous la classification phylogénétique APG II (2003)[17] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour rappel, ci-dessous la classification phylogénétique APG II (2003) :
 clade des Astéridées (en anglais, « asterids ») :
 ordre des Cornales
 ordre des Ericales
